--- a/MinMax/scripts/comparison/accuracy_comparison_table_118_100.xlsx
+++ b/MinMax/scripts/comparison/accuracy_comparison_table_118_100.xlsx
@@ -31,58 +31,58 @@
     <t>Metric [MSE]</t>
   </si>
   <si>
+    <t>Ibr_to_i_tot</t>
+  </si>
+  <si>
     <t>slack_tot</t>
   </si>
   <si>
+    <t>nn_input</t>
+  </si>
+  <si>
+    <t>pinj_tot</t>
+  </si>
+  <si>
+    <t>pd_tot</t>
+  </si>
+  <si>
+    <t>Ibr_from_r_tot</t>
+  </si>
+  <si>
+    <t>vm_tot</t>
+  </si>
+  <si>
     <t>cost_tot</t>
   </si>
   <si>
-    <t>nn_input</t>
+    <t>pg_tot</t>
+  </si>
+  <si>
+    <t>vi_tot</t>
+  </si>
+  <si>
+    <t>qd_tot</t>
+  </si>
+  <si>
+    <t>qg_tot</t>
+  </si>
+  <si>
+    <t>Ibr_to_r_tot</t>
+  </si>
+  <si>
+    <t>Iinj_i_tot</t>
+  </si>
+  <si>
+    <t>qinj_tot</t>
   </si>
   <si>
     <t>vr_tot</t>
   </si>
   <si>
+    <t>Ibr_from_i_tot</t>
+  </si>
+  <si>
     <t>Iinj_r_tot</t>
-  </si>
-  <si>
-    <t>pinj_tot</t>
-  </si>
-  <si>
-    <t>qinj_tot</t>
-  </si>
-  <si>
-    <t>vm_tot</t>
-  </si>
-  <si>
-    <t>Ibr_from_r_tot</t>
-  </si>
-  <si>
-    <t>vi_tot</t>
-  </si>
-  <si>
-    <t>Ibr_to_r_tot</t>
-  </si>
-  <si>
-    <t>Iinj_i_tot</t>
-  </si>
-  <si>
-    <t>pg_tot</t>
-  </si>
-  <si>
-    <t>Ibr_to_i_tot</t>
-  </si>
-  <si>
-    <t>Ibr_from_i_tot</t>
-  </si>
-  <si>
-    <t>pd_tot</t>
-  </si>
-  <si>
-    <t>qg_tot</t>
-  </si>
-  <si>
-    <t>qd_tot</t>
   </si>
   <si>
     <t>0.98 (1.81)</t>
@@ -491,17 +491,17 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
+      <c r="B2">
+        <v>1.069764152579446</v>
+      </c>
+      <c r="C2">
+        <v>1.06975948699324</v>
+      </c>
+      <c r="D2">
+        <v>0.01480514835566282</v>
+      </c>
+      <c r="E2">
+        <v>0.005040441174060106</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -509,16 +509,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -543,16 +543,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.5876778364181519</v>
+        <v>9.591991424560547</v>
       </c>
       <c r="C5">
-        <v>0.5876758694648743</v>
+        <v>9.591852188110352</v>
       </c>
       <c r="D5">
-        <v>3.11351141135674E-05</v>
+        <v>0.02933613210916519</v>
       </c>
       <c r="E5">
-        <v>6.86240764480317E-06</v>
+        <v>0.01041548606008291</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -560,16 +560,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>10.08731941032011</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>10.0871701397242</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.029056616127491</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01013791002333164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -577,16 +577,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>9.591991424560547</v>
+        <v>3.098636907027137</v>
       </c>
       <c r="C7">
-        <v>9.591852188110352</v>
+        <v>3.098609416714631</v>
       </c>
       <c r="D7">
-        <v>0.02933613210916519</v>
+        <v>0.007360856048762798</v>
       </c>
       <c r="E7">
-        <v>0.01041548606008291</v>
+        <v>0.002827989403158426</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -594,33 +594,33 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>1.191252946853638</v>
+        <v>0.00239780661650002</v>
       </c>
       <c r="C8">
-        <v>1.191231250762939</v>
+        <v>0.002397807314991951</v>
       </c>
       <c r="D8">
-        <v>0.05820580944418907</v>
+        <v>2.965736712212674E-05</v>
       </c>
       <c r="E8">
-        <v>0.02202362008392811</v>
+        <v>5.432589659903897E-06</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
-        <v>0.00239780661650002</v>
-      </c>
-      <c r="C9">
-        <v>0.002397807314991951</v>
-      </c>
-      <c r="D9">
-        <v>2.965736712212674E-05</v>
-      </c>
-      <c r="E9">
-        <v>5.432589659903897E-06</v>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -628,16 +628,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>3.098636907027137</v>
+        <v>0.0002516969774107016</v>
       </c>
       <c r="C10">
-        <v>3.098609416714631</v>
+        <v>0.000652412807171505</v>
       </c>
       <c r="D10">
-        <v>0.007360856048762798</v>
+        <v>0.0178750567138195</v>
       </c>
       <c r="E10">
-        <v>0.002827989403158426</v>
+        <v>0.006308360490947962</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -662,16 +662,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>2.890199337459273</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>2.890174992996692</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.006796278059482574</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.002625292632728815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -679,16 +679,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>1.066338161824633</v>
+        <v>0.1241559758782387</v>
       </c>
       <c r="C13">
-        <v>1.066323563726136</v>
+        <v>0.1241559758782387</v>
       </c>
       <c r="D13">
-        <v>0.0582495778799057</v>
+        <v>0.04403285309672356</v>
       </c>
       <c r="E13">
-        <v>0.02226710692048073</v>
+        <v>0.02011260017752647</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -696,16 +696,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.0002516969774107016</v>
+        <v>2.890199337459273</v>
       </c>
       <c r="C14">
-        <v>0.000652412807171505</v>
+        <v>2.890174992996692</v>
       </c>
       <c r="D14">
-        <v>0.0178750567138195</v>
+        <v>0.006796278059482574</v>
       </c>
       <c r="E14">
-        <v>0.006308360490947962</v>
+        <v>0.002625292632728815</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -713,16 +713,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>1.069764152579446</v>
+        <v>1.066338161824633</v>
       </c>
       <c r="C15">
-        <v>1.06975948699324</v>
+        <v>1.066323563726136</v>
       </c>
       <c r="D15">
-        <v>0.01480514835566282</v>
+        <v>0.0582495778799057</v>
       </c>
       <c r="E15">
-        <v>0.005040441174060106</v>
+        <v>0.02226710692048073</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -730,16 +730,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>1.018578401712462</v>
+        <v>1.191252946853638</v>
       </c>
       <c r="C16">
-        <v>1.01857238670702</v>
+        <v>1.191231250762939</v>
       </c>
       <c r="D16">
-        <v>0.01555897574871778</v>
+        <v>0.05820580944418907</v>
       </c>
       <c r="E16">
-        <v>0.005287733394652605</v>
+        <v>0.02202362008392811</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -747,16 +747,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.5876778364181519</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.5876758694648743</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>3.11351141135674E-05</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>6.86240764480317E-06</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -764,16 +764,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.1241559758782387</v>
+        <v>1.018578401712462</v>
       </c>
       <c r="C18">
-        <v>0.1241559758782387</v>
+        <v>1.01857238670702</v>
       </c>
       <c r="D18">
-        <v>0.04403285309672356</v>
+        <v>0.01555897574871778</v>
       </c>
       <c r="E18">
-        <v>0.02011260017752647</v>
+        <v>0.005287733394652605</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -781,16 +781,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>10.08731941032011</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>10.0871701397242</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.029056616127491</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.01013791002333164</v>
       </c>
     </row>
   </sheetData>

--- a/MinMax/scripts/comparison/accuracy_comparison_table_118_100.xlsx
+++ b/MinMax/scripts/comparison/accuracy_comparison_table_118_100.xlsx
@@ -34,79 +34,79 @@
     <t>Ibr_to_i_tot</t>
   </si>
   <si>
+    <t>cost_tot</t>
+  </si>
+  <si>
+    <t>qinj_tot</t>
+  </si>
+  <si>
+    <t>nn_input</t>
+  </si>
+  <si>
+    <t>vm_tot</t>
+  </si>
+  <si>
+    <t>vr_tot</t>
+  </si>
+  <si>
+    <t>pg_tot</t>
+  </si>
+  <si>
+    <t>vi_tot</t>
+  </si>
+  <si>
+    <t>Iinj_r_tot</t>
+  </si>
+  <si>
+    <t>Ibr_from_i_tot</t>
+  </si>
+  <si>
+    <t>pinj_tot</t>
+  </si>
+  <si>
+    <t>qg_tot</t>
+  </si>
+  <si>
+    <t>Ibr_from_r_tot</t>
+  </si>
+  <si>
+    <t>Iinj_i_tot</t>
+  </si>
+  <si>
     <t>slack_tot</t>
   </si>
   <si>
-    <t>nn_input</t>
-  </si>
-  <si>
-    <t>pinj_tot</t>
+    <t>qd_tot</t>
   </si>
   <si>
     <t>pd_tot</t>
   </si>
   <si>
-    <t>Ibr_from_r_tot</t>
-  </si>
-  <si>
-    <t>vm_tot</t>
-  </si>
-  <si>
-    <t>cost_tot</t>
-  </si>
-  <si>
-    <t>pg_tot</t>
-  </si>
-  <si>
-    <t>vi_tot</t>
-  </si>
-  <si>
-    <t>qd_tot</t>
-  </si>
-  <si>
-    <t>qg_tot</t>
-  </si>
-  <si>
     <t>Ibr_to_r_tot</t>
   </si>
   <si>
-    <t>Iinj_i_tot</t>
-  </si>
-  <si>
-    <t>qinj_tot</t>
-  </si>
-  <si>
-    <t>vr_tot</t>
-  </si>
-  <si>
-    <t>Ibr_from_i_tot</t>
-  </si>
-  <si>
-    <t>Iinj_r_tot</t>
+    <t>67288.81 (69469.98 &gt; 3.13%)</t>
   </si>
   <si>
     <t>0.98 (1.81)</t>
   </si>
   <si>
-    <t>67288.81 (69469.98 &gt; 3.13%)</t>
+    <t>67283.24 (69469.98 &gt; 3.14%)</t>
   </si>
   <si>
     <t>0.96 (1.81)</t>
   </si>
   <si>
-    <t>67283.24 (69469.98 &gt; 3.14%)</t>
+    <t>65712.87 (69469.98 &gt; 5.15%)</t>
   </si>
   <si>
     <t>-0.82 (1.81)</t>
   </si>
   <si>
-    <t>65712.87 (69469.98 &gt; 5.15%)</t>
+    <t>63585.14 (69469.98 &gt; 8.00%)</t>
   </si>
   <si>
     <t>-0.83 (1.81)</t>
-  </si>
-  <si>
-    <t>63585.14 (69469.98 &gt; 8.00%)</t>
   </si>
 </sst>
 </file>
@@ -526,16 +526,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>7.622443636073521E-17</v>
+        <v>1.191252946853638</v>
       </c>
       <c r="C4">
-        <v>7.622443636073521E-17</v>
+        <v>1.191231250762939</v>
       </c>
       <c r="D4">
-        <v>7.622443636073521E-17</v>
+        <v>0.05820580944418907</v>
       </c>
       <c r="E4">
-        <v>7.622443636073521E-17</v>
+        <v>0.02202362008392811</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -543,16 +543,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>9.591991424560547</v>
+        <v>7.622443636073521E-17</v>
       </c>
       <c r="C5">
-        <v>9.591852188110352</v>
+        <v>7.622443636073521E-17</v>
       </c>
       <c r="D5">
-        <v>0.02933613210916519</v>
+        <v>7.622443636073521E-17</v>
       </c>
       <c r="E5">
-        <v>0.01041548606008291</v>
+        <v>7.622443636073521E-17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -560,16 +560,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.00239780661650002</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.002397807314991951</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.965736712212674E-05</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5.432589659903897E-06</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -577,16 +577,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>3.098636907027137</v>
+        <v>0.5876778364181519</v>
       </c>
       <c r="C7">
-        <v>3.098609416714631</v>
+        <v>0.5876758694648743</v>
       </c>
       <c r="D7">
-        <v>0.007360856048762798</v>
+        <v>3.11351141135674E-05</v>
       </c>
       <c r="E7">
-        <v>0.002827989403158426</v>
+        <v>6.86240764480317E-06</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -594,33 +594,33 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.00239780661650002</v>
+        <v>0.0002516969774107016</v>
       </c>
       <c r="C8">
-        <v>0.002397807314991951</v>
+        <v>0.000652412807171505</v>
       </c>
       <c r="D8">
-        <v>2.965736712212674E-05</v>
+        <v>0.0178750567138195</v>
       </c>
       <c r="E8">
-        <v>5.432589659903897E-06</v>
+        <v>0.006308360490947962</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
+      <c r="B9">
+        <v>0.6871082782745361</v>
+      </c>
+      <c r="C9">
+        <v>0.6871026158332825</v>
+      </c>
+      <c r="D9">
+        <v>7.338651630561799E-05</v>
+      </c>
+      <c r="E9">
+        <v>5.091610728413798E-05</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -628,16 +628,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.0002516969774107016</v>
+        <v>10.08731941032011</v>
       </c>
       <c r="C10">
-        <v>0.000652412807171505</v>
+        <v>10.0871701397242</v>
       </c>
       <c r="D10">
-        <v>0.0178750567138195</v>
+        <v>0.029056616127491</v>
       </c>
       <c r="E10">
-        <v>0.006308360490947962</v>
+        <v>0.01013791002333164</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -645,16 +645,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.6871082782745361</v>
+        <v>1.018578401712462</v>
       </c>
       <c r="C11">
-        <v>0.6871026158332825</v>
+        <v>1.01857238670702</v>
       </c>
       <c r="D11">
-        <v>7.338651630561799E-05</v>
+        <v>0.01555897574871778</v>
       </c>
       <c r="E11">
-        <v>5.091610728413798E-05</v>
+        <v>0.005287733394652605</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -662,16 +662,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>9.591991424560547</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>9.591852188110352</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.02933613210916519</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.01041548606008291</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -696,16 +696,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>2.890199337459273</v>
+        <v>3.098636907027137</v>
       </c>
       <c r="C14">
-        <v>2.890174992996692</v>
+        <v>3.098609416714631</v>
       </c>
       <c r="D14">
-        <v>0.006796278059482574</v>
+        <v>0.007360856048762798</v>
       </c>
       <c r="E14">
-        <v>0.002625292632728815</v>
+        <v>0.002827989403158426</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -729,17 +729,17 @@
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16">
-        <v>1.191252946853638</v>
-      </c>
-      <c r="C16">
-        <v>1.191231250762939</v>
-      </c>
-      <c r="D16">
-        <v>0.05820580944418907</v>
-      </c>
-      <c r="E16">
-        <v>0.02202362008392811</v>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -747,16 +747,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>0.5876778364181519</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.5876758694648743</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>3.11351141135674E-05</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>6.86240764480317E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -764,16 +764,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>1.018578401712462</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>1.01857238670702</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01555897574871778</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.005287733394652605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -781,16 +781,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>10.08731941032011</v>
+        <v>2.890199337459273</v>
       </c>
       <c r="C19">
-        <v>10.0871701397242</v>
+        <v>2.890174992996692</v>
       </c>
       <c r="D19">
-        <v>0.029056616127491</v>
+        <v>0.006796278059482574</v>
       </c>
       <c r="E19">
-        <v>0.01013791002333164</v>
+        <v>0.002625292632728815</v>
       </c>
     </row>
   </sheetData>
